--- a/biology/Biochimie/ADN_Z/ADN_Z.xlsx
+++ b/biology/Biochimie/ADN_Z/ADN_Z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN Z est une forme d'ADN caractérisée par une double hélice gauche, contrairement à l'ADN B, naturellement la plus courante, et à l'ADN A, observée notamment après déshydratation de la première. L'ADN Z est plus étroit que l'ADN B et l'ADN A, avec un allongement supérieur par paire de bases ajoutée. Cette forme d'ADN bicaténaire jouerait un rôle dans le relâchement des tensions induites par le surenroulement de l'ADN lors de la réplication[1],[2]. L'apparition d'ADN Z coïncide par ailleurs avec les régions du génome à forte activité de transcription.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN Z est une forme d'ADN caractérisée par une double hélice gauche, contrairement à l'ADN B, naturellement la plus courante, et à l'ADN A, observée notamment après déshydratation de la première. L'ADN Z est plus étroit que l'ADN B et l'ADN A, avec un allongement supérieur par paire de bases ajoutée. Cette forme d'ADN bicaténaire jouerait un rôle dans le relâchement des tensions induites par le surenroulement de l'ADN lors de la réplication,. L'apparition d'ADN Z coïncide par ailleurs avec les régions du génome à forte activité de transcription.
 </t>
         </is>
       </c>
